--- a/va_facility_data_2025-02-20/Yale VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Yale%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Yale VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Yale%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5fcacb1a77204339acb4532fda20ef33"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5b06bd71bb464a0996d0825695475116"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb6202135362c4f42ba233e1bb6460a4e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5e1a3164a2f544aca7a3489701b935a9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb676f3651f884db8b5d8cc0b9b2dffdd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9f9811e4fed041a580c397416a97a4a5"/>
   </x:sheets>
 </x:workbook>
 </file>
